--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820672.188675489</v>
+        <v>3818420.108964283</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>310.9299993360282</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617357</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>61.05801487789154</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
-        <v>11.09070292403271</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.051689109229</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>109.6818210815091</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.33854647025974</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697783</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467944</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535337</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1904.487375535337</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1546.221676928587</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535337</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>128.1868789351042</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>128.1868789351042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1998.10447029351</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1629.141953353098</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4607,10 +4607,10 @@
         <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269322</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.10447029351</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>810.0972875540343</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>582.107736656017</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.004869410819</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470408</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D8" t="n">
-        <v>920.7766538636572</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E8" t="n">
-        <v>534.9884012654129</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F8" t="n">
-        <v>124.0024964758053</v>
+        <v>191.9478189608271</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462276</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,25 +4802,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
         <v>66.5121164321834</v>
@@ -4960,52 +4960,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5279,19 +5279,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,7 +5741,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6069,13 +6069,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7078,13 +7078,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550378</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550378</v>
       </c>
     </row>
     <row r="10">
@@ -26314,43 +26314,43 @@
         <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>786967.9346977554</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>786967.9346977561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977557</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26424,10 +26424,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186738</v>
@@ -26445,10 +26445,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753627</v>
+        <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522302</v>
+        <v>598985.04095223</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522305</v>
+        <v>598985.0409522301</v>
       </c>
       <c r="E6" t="n">
-        <v>345606.2470246259</v>
+        <v>345571.5090991901</v>
       </c>
       <c r="F6" t="n">
-        <v>671018.7088319815</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="G6" t="n">
-        <v>671018.7088319809</v>
+        <v>670983.9709065459</v>
       </c>
       <c r="H6" t="n">
-        <v>671018.7088319814</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="I6" t="n">
-        <v>671018.7088319811</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="J6" t="n">
-        <v>453487.5064347037</v>
+        <v>453452.7685092683</v>
       </c>
       <c r="K6" t="n">
-        <v>671018.7088319813</v>
+        <v>670983.9709065453</v>
       </c>
       <c r="L6" t="n">
-        <v>671018.7088319813</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="M6" t="n">
-        <v>585963.6808964695</v>
+        <v>585928.9429710339</v>
       </c>
       <c r="N6" t="n">
-        <v>671018.7088319816</v>
+        <v>670983.9709065454</v>
       </c>
       <c r="O6" t="n">
-        <v>671018.7088319813</v>
+        <v>670983.970906546</v>
       </c>
       <c r="P6" t="n">
-        <v>671018.7088319812</v>
+        <v>670983.9709065456</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>71.00037073623361</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167333</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.55745814032082</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
-        <v>343.5923386966502</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096383918</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>176.841177255082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>395.5831791831937</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103426</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127099</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980530036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33032,10 +33032,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597745</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>372.0991318096482</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
